--- a/grupos/6ARHV - Estadisticos 20202.xlsx
+++ b/grupos/6ARHV - Estadisticos 20202.xlsx
@@ -1714,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>6</v>

--- a/grupos/6ARHV - Estadisticos 20202.xlsx
+++ b/grupos/6ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
   <si>
     <t>Materia</t>
   </si>
@@ -170,13 +170,13 @@
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
     <t>Martínez López Miguel Ángel</t>
   </si>
   <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
@@ -3112,19 +3112,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>82.14</v>
+        <v>92.86</v>
       </c>
       <c r="G2">
-        <v>17.86</v>
+        <v>7.14</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -3144,19 +3144,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>85.70999999999999</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="G3">
-        <v>14.29</v>
+        <v>3.57</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3170,25 +3170,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>89.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>10.71</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3202,25 +3202,25 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>92.86</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3231,28 +3231,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>92.86</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3847,7 +3847,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3877,47 +3877,47 @@
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17330051920264</v>
+        <v>18330051920108</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>17330051920264</v>
+        <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -3928,70 +3928,24 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920090</v>
+        <v>17330051920334</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920391</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6">
         <v>5</v>
       </c>
     </row>
